--- a/03_arquivos/07_planilhas/planilhas/planilhas_separadas/pr.xlsx
+++ b/03_arquivos/07_planilhas/planilhas/planilhas_separadas/pr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,906 +434,780 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Nome</t>
+          <t>Telefones</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Telefones</t>
+          <t>email</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>receita</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Donald Snook</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="B2" t="n">
         <v>98005277</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>donalds@gmail.com</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="D2" t="n">
         <v>628334.01</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Beverly Archer</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="B3" t="n">
         <v>99013157</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>beverlya@gmail.com</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="D3" t="n">
         <v>18874.11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>David Light</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="B4" t="n">
         <v>95818775</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>davidl@gmail.com</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="D4" t="n">
         <v>706793.91</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>William Brazier</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="B5" t="n">
         <v>97461913</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>williamb@gmail.com</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="D5" t="n">
         <v>240101.65</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>David Ashton</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="B6" t="n">
         <v>97355543</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>davida@gmail.com</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="D6" t="n">
         <v>660740.8100000001</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Armando Augustine</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="B7" t="n">
         <v>91580020</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>armandoa@gmail.com</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="D7" t="n">
         <v>449910.24</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Kelly Anderson</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="B8" t="n">
         <v>91599812</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>kellya@gmail.com</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="D8" t="n">
         <v>709718.9300000001</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Ronald Gathers</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="B9" t="n">
         <v>92211751</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>ronaldg@gmail.com</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="D9" t="n">
         <v>210255.86</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Barbara Molina</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="B10" t="n">
         <v>95000923</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>barbaram@gmail.com</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="D10" t="n">
         <v>422263.13</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Alexandra Griffith</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="B11" t="n">
         <v>96271018</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>alexandrag@gmail.com</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="D11" t="n">
         <v>626080.26</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Mary Lee</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="B12" t="n">
         <v>90346821</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>maryl@gmail.com</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="D12" t="n">
         <v>400819.4</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>David Mann</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="B13" t="n">
         <v>99518581</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>davidm@gmail.com</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="D13" t="n">
         <v>685962.37</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Kevin Magner</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="B14" t="n">
         <v>99217766</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>kevinm@gmail.com</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="D14" t="n">
         <v>513976.08</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Deborah Hudson</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="B15" t="n">
         <v>90936385</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>deborahh@gmail.com</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="D15" t="n">
         <v>122246.99</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Cynthia Prince</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="B16" t="n">
         <v>98806135</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>cynthiap@gmail.com</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="D16" t="n">
         <v>33473.1</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Edward Gilbert</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="B17" t="n">
         <v>99262474</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>edwardg@gmail.com</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="D17" t="n">
         <v>936494.92</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Christopher Kelly</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="B18" t="n">
         <v>95526999</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>christopherk@gmail.com</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="D18" t="n">
         <v>571485.1</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Kellie Huth</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="B19" t="n">
         <v>94294960</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>kellieh@gmail.com</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="D19" t="n">
         <v>819444.09</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Gary Sams</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="B20" t="n">
         <v>95403778</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>garys@gmail.com</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="D20" t="n">
         <v>609436.99</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Luz Atkins</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="B21" t="n">
         <v>90663465</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>luza@gmail.com</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="D21" t="n">
         <v>677941.49</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>Richard Haifley</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="B22" t="n">
         <v>94173014</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>richardh@gmail.com</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="D22" t="n">
         <v>972436.4300000001</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Thomas Campbell</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="B23" t="n">
         <v>92859227</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>thomasc@gmail.com</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="D23" t="n">
         <v>550916.78</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Betty Bush</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="B24" t="n">
         <v>91985091</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>bettyb@gmail.com</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="D24" t="n">
         <v>245974.41</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Kathryn Heath</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="B25" t="n">
         <v>99709532</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>kathrynh@gmail.com</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="D25" t="n">
         <v>342445.27</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Clarence Spiney</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="B26" t="n">
         <v>98133951</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>clarences@gmail.com</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="D26" t="n">
         <v>448792.91</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Angela Lester</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="B27" t="n">
         <v>97800342</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>angelal@gmail.com</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="D27" t="n">
         <v>252491.64</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Tennille Delatorre</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="B28" t="n">
         <v>92289839</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>tennilled@gmail.com</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="D28" t="n">
         <v>777832.09</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Claude Kopple</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="B29" t="n">
         <v>99914820</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>claudek@gmail.com</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="D29" t="n">
         <v>752496.75</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Derek Oaks</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="B30" t="n">
         <v>98655136</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>dereko@gmail.com</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="D30" t="n">
         <v>764014.09</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>James Mccormick</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="B31" t="n">
         <v>99508063</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>jamesm@gmail.com</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="D31" t="n">
         <v>286133.38</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>Melvin Pitts</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="B32" t="n">
         <v>98770539</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>melvinp@gmail.com</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="D32" t="n">
         <v>725158.98</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Norman Hall</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="B33" t="n">
         <v>99632604</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>normanh@gmail.com</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="D33" t="n">
         <v>1045755.3</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>Melvin Rodrigues</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="B34" t="n">
         <v>97048388</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>melvinr@gmail.com</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="D34" t="n">
         <v>672843.09</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Stephanie Owen</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="B35" t="n">
         <v>93583276</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>stephanieo@gmail.com</t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="D35" t="n">
         <v>997812.96</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Richard Scott</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="B36" t="n">
         <v>95460512</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>richards@gmail.com</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="D36" t="n">
         <v>636129.4</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Janice Lowry</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="B37" t="n">
         <v>91450892</v>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>janicel@gmail.com</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="D37" t="n">
         <v>194697.03</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Eli Mcmullen</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="B38" t="n">
         <v>99139429</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>elim@gmail.com</t>
         </is>
       </c>
-      <c r="E38" t="n">
+      <c r="D38" t="n">
         <v>416492.38</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
+      <c r="A39" t="inlineStr">
         <is>
           <t>James Byers</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="B39" t="n">
         <v>98253332</v>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>jamesb@gmail.com</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="D39" t="n">
         <v>39246.15</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
+      <c r="A40" t="inlineStr">
         <is>
           <t>John Cooper</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="B40" t="n">
         <v>95772763</v>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>johnc@gmail.com</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="D40" t="n">
         <v>1045091.46</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Carol Dossey</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="B41" t="n">
         <v>97544741</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>carold@gmail.com</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="D41" t="n">
         <v>337056.54</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
+      <c r="A42" t="inlineStr">
         <is>
           <t>Louis Ortiz</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="B42" t="n">
         <v>90737248</v>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>louiso@gmail.com</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="D42" t="n">
         <v>619109.22</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>Lena Roes</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="B43" t="n">
         <v>99735933</v>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>lenar@gmail.com</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="D43" t="n">
         <v>122928.3</v>
       </c>
     </row>
